--- a/results/df_overall.xlsx
+++ b/results/df_overall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
   <si>
     <t>year</t>
   </si>
@@ -22,18 +22,12 @@
     <t>word</t>
   </si>
   <si>
-    <t>frequency</t>
+    <t>quantity</t>
   </si>
   <si>
     <t>All</t>
   </si>
   <si>
-    <t>19xx</t>
-  </si>
-  <si>
-    <t>20xx</t>
-  </si>
-  <si>
     <t>child</t>
   </si>
   <si>
@@ -43,112 +37,85 @@
     <t>programme</t>
   </si>
   <si>
+    <t>health</t>
+  </si>
+  <si>
     <t>education</t>
   </si>
   <si>
-    <t>health</t>
+    <t>development</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>woman</t>
   </si>
   <si>
     <t>resource</t>
   </si>
   <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>development</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
     <t>committee</t>
   </si>
   <si>
+    <t>government</t>
+  </si>
+  <si>
     <t>school</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
     <t>community</t>
   </si>
   <si>
-    <t>government</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>service</t>
+    <t>water</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>africa</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>republic</t>
   </si>
   <si>
-    <t>foundation</t>
-  </si>
-  <si>
-    <t>africa</t>
-  </si>
-  <si>
-    <t>partner</t>
-  </si>
-  <si>
-    <t>water</t>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>girl</t>
+  </si>
+  <si>
+    <t>fund</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>effort</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
   <si>
     <t>project</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>girl</t>
-  </si>
-  <si>
-    <t>partnership</t>
+    <t>state</t>
+  </si>
+  <si>
+    <t>supply</t>
   </si>
   <si>
     <t>need</t>
-  </si>
-  <si>
-    <t>organization</t>
-  </si>
-  <si>
-    <t>activity</t>
-  </si>
-  <si>
-    <t>office</t>
-  </si>
-  <si>
-    <t>sector</t>
-  </si>
-  <si>
-    <t>fund</t>
-  </si>
-  <si>
-    <t>effort</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>training</t>
-  </si>
-  <si>
-    <t>contribution</t>
-  </si>
-  <si>
-    <t>protection</t>
   </si>
 </sst>
 </file>
@@ -506,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BI4"/>
+  <dimension ref="A1:BI2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -702,554 +669,184 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>12925</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>5823</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>4097</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I2">
         <v>3745</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2">
         <v>2744</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M2">
         <v>2673</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O2">
         <v>2616</v>
       </c>
       <c r="P2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q2">
         <v>2502</v>
       </c>
       <c r="R2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S2">
         <v>2222</v>
       </c>
       <c r="T2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U2">
         <v>2220</v>
       </c>
       <c r="V2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="W2">
         <v>2045</v>
       </c>
       <c r="X2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y2">
         <v>1955</v>
       </c>
       <c r="Z2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AA2">
         <v>1923</v>
       </c>
       <c r="AB2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AC2">
         <v>1838</v>
       </c>
       <c r="AD2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE2">
         <v>1825</v>
       </c>
       <c r="AF2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AG2">
         <v>1704</v>
       </c>
       <c r="AH2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AI2">
         <v>1659</v>
       </c>
       <c r="AJ2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK2">
         <v>1549</v>
       </c>
       <c r="AL2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AM2">
         <v>1494</v>
       </c>
       <c r="AN2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO2">
         <v>1465</v>
       </c>
       <c r="AP2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AQ2">
         <v>1431</v>
       </c>
       <c r="AR2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AS2">
         <v>1410</v>
       </c>
       <c r="AT2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AU2">
         <v>1334</v>
       </c>
       <c r="AV2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AW2">
         <v>1332</v>
       </c>
       <c r="AX2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="AY2">
         <v>1312</v>
       </c>
       <c r="AZ2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="BA2">
         <v>1308</v>
       </c>
       <c r="BB2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="BC2">
         <v>1274</v>
       </c>
       <c r="BD2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="BE2">
         <v>1243</v>
       </c>
       <c r="BF2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="BG2">
         <v>1216</v>
       </c>
       <c r="BH2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="BI2">
         <v>1150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:61">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>7150</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>3901</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>2946</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>2671</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3">
-        <v>1916</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3">
-        <v>1731</v>
-      </c>
-      <c r="N3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3">
-        <v>1666</v>
-      </c>
-      <c r="P3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3">
-        <v>1562</v>
-      </c>
-      <c r="R3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3">
-        <v>1290</v>
-      </c>
-      <c r="T3" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3">
-        <v>1277</v>
-      </c>
-      <c r="V3" t="s">
-        <v>19</v>
-      </c>
-      <c r="W3">
-        <v>1242</v>
-      </c>
-      <c r="X3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y3">
-        <v>1194</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA3">
-        <v>1171</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC3">
-        <v>1135</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE3">
-        <v>1118</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG3">
-        <v>1117</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI3">
-        <v>1054</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK3">
-        <v>1050</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM3">
-        <v>1046</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO3">
-        <v>922</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ3">
-        <v>918</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AS3">
-        <v>895</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AU3">
-        <v>854</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AW3">
-        <v>830</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AY3">
-        <v>825</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>40</v>
-      </c>
-      <c r="BA3">
-        <v>824</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>27</v>
-      </c>
-      <c r="BC3">
-        <v>816</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>38</v>
-      </c>
-      <c r="BE3">
-        <v>792</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>42</v>
-      </c>
-      <c r="BG3">
-        <v>766</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI3">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="4" spans="1:61">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>5775</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>1922</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>1182</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4">
-        <v>1172</v>
-      </c>
-      <c r="J4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4">
-        <v>1151</v>
-      </c>
-      <c r="L4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4">
-        <v>1074</v>
-      </c>
-      <c r="N4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4">
-        <v>1007</v>
-      </c>
-      <c r="P4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4">
-        <v>930</v>
-      </c>
-      <c r="R4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S4">
-        <v>909</v>
-      </c>
-      <c r="T4" t="s">
-        <v>14</v>
-      </c>
-      <c r="U4">
-        <v>885</v>
-      </c>
-      <c r="V4" t="s">
-        <v>18</v>
-      </c>
-      <c r="W4">
-        <v>874</v>
-      </c>
-      <c r="X4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y4">
-        <v>815</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA4">
-        <v>757</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC4">
-        <v>736</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE4">
-        <v>681</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG4">
-        <v>678</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI4">
-        <v>665</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK4">
-        <v>644</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM4">
-        <v>630</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO4">
-        <v>606</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ4">
-        <v>605</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AS4">
-        <v>596</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AU4">
-        <v>586</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AW4">
-        <v>586</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY4">
-        <v>583</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>41</v>
-      </c>
-      <c r="BA4">
-        <v>550</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>17</v>
-      </c>
-      <c r="BC4">
-        <v>548</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>38</v>
-      </c>
-      <c r="BE4">
-        <v>540</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>43</v>
-      </c>
-      <c r="BG4">
-        <v>539</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>44</v>
-      </c>
-      <c r="BI4">
-        <v>500</v>
       </c>
     </row>
   </sheetData>
